--- a/Multiknapsack/results/fixed_recourse/multicut/M50_N100_T0_a25_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M50_N100_T0_a25_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-406.6470855097974</v>
+        <v>-274.9655817221359</v>
       </c>
       <c r="C2">
-        <v>7.583908426</v>
+        <v>28.361499513</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G2">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H2">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I2">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-408.47796953931436</v>
+        <v>-273.9816225888468</v>
       </c>
       <c r="C3">
-        <v>0.13989897</v>
+        <v>19.684519199</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G3">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H3">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-407.3725385859316</v>
+        <v>-274.08960459636427</v>
       </c>
       <c r="C4">
-        <v>0.122859761</v>
+        <v>14.988418612</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G4">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H4">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I4">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-412.28278434469985</v>
+        <v>-276.86855154162515</v>
       </c>
       <c r="C5">
-        <v>0.123517101</v>
+        <v>16.164857087</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G5">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H5">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I5">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-404.37976411804567</v>
+        <v>-272.1653938311721</v>
       </c>
       <c r="C6">
-        <v>0.165000545</v>
+        <v>17.695829122</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G6">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H6">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I6">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-401.4006324234201</v>
+        <v>-268.97221187709164</v>
       </c>
       <c r="C7">
-        <v>0.105456318</v>
+        <v>17.885493201</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G7">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H7">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I7">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-396.3815796199425</v>
+        <v>-265.4281513734784</v>
       </c>
       <c r="C8">
-        <v>0.141515799</v>
+        <v>19.47060509</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G8">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H8">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I8">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-408.43290615215943</v>
+        <v>-274.2017084750978</v>
       </c>
       <c r="C9">
-        <v>0.119729775</v>
+        <v>17.878042283</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G9">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H9">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-402.82378064604393</v>
+        <v>-271.53604073578464</v>
       </c>
       <c r="C10">
-        <v>0.281084174</v>
+        <v>18.787386758</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G10">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H10">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I10">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-399.37293214234796</v>
+        <v>-268.78676349663795</v>
       </c>
       <c r="C11">
-        <v>0.155840579</v>
+        <v>18.493577767</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G11">
-        <v>652</v>
+        <v>27700</v>
       </c>
       <c r="H11">
-        <v>605</v>
+        <v>30250</v>
       </c>
       <c r="I11">
-        <v>50</v>
+        <v>2500</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.04119687051635742</v>
+        <v>0.040193955549560546</v>
       </c>
       <c r="E2">
-        <v>36.36254</v>
+        <v>68.71954</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-402.82378064604393</v>
+        <v>-271.53604073578464</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.07011464592711199</v>
       </c>
       <c r="D3">
-        <v>0.08295109861669922</v>
+        <v>17.900044588735472</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0302431824609375</v>
+        <v>0.0532828747911377</v>
       </c>
       <c r="E2">
-        <v>34.71076</v>
+        <v>70.3188</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-399.37293214234796</v>
+        <v>-268.78676349663795</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.07971176734353576</v>
       </c>
       <c r="D3">
-        <v>0.06464505325830078</v>
+        <v>17.5638273662312</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.8486201634249267</v>
+        <v>0.9088385056567383</v>
       </c>
       <c r="E2">
-        <v>35.31739</v>
+        <v>70.77445</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-406.6470855097974</v>
+        <v>-274.9655817221359</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08770811021076466</v>
       </c>
       <c r="D3">
-        <v>0.06511310920324707</v>
+        <v>16.902787455143798</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.03467653763476562</v>
+        <v>0.025314165014038086</v>
       </c>
       <c r="E2">
-        <v>39.30786</v>
+        <v>68.31078</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-408.47796953931436</v>
+        <v>-273.9816225888468</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.09158070790911396</v>
       </c>
       <c r="D3">
-        <v>0.05986481436804199</v>
+        <v>18.891956181888673</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02169825974291992</v>
+        <v>0.05396996686218262</v>
       </c>
       <c r="E2">
-        <v>37.14052</v>
+        <v>72.03609</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-407.3725385859316</v>
+        <v>-274.08960459636427</v>
       </c>
       <c r="C3">
-        <v>1.3953669792791754e-14</v>
+        <v>0.09384263339934619</v>
       </c>
       <c r="D3">
-        <v>0.055540191348510744</v>
+        <v>14.110434908917236</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.021883898821655274</v>
+        <v>0.057115765817260744</v>
       </c>
       <c r="E2">
-        <v>36.98662</v>
+        <v>71.29895</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-412.28278434469985</v>
+        <v>-276.86855154162515</v>
       </c>
       <c r="C3">
-        <v>2.7574966027816865e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.05692459365075683</v>
+        <v>15.265561777960693</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0332903154609375</v>
+        <v>0.05462881648291015</v>
       </c>
       <c r="E2">
-        <v>32.88088</v>
+        <v>70.50756</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-404.37976411804567</v>
+        <v>-272.1653938311721</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08075643941171622</v>
       </c>
       <c r="D3">
-        <v>0.08202578076477052</v>
+        <v>16.889026603522094</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.0213028473046875</v>
+        <v>0.052927086459960936</v>
       </c>
       <c r="E2">
-        <v>37.47244</v>
+        <v>74.8484</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-401.4006324234201</v>
+        <v>-268.97221187709164</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.08639506344671546</v>
       </c>
       <c r="D3">
-        <v>0.04301774771459961</v>
+        <v>17.075744087620727</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02558988068395996</v>
+        <v>0.05447040664355469</v>
       </c>
       <c r="E2">
-        <v>33.17544</v>
+        <v>69.60139</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-396.3815796199425</v>
+        <v>-265.4281513734784</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.06623651690862611</v>
       </c>
       <c r="D3">
-        <v>0.06119482930566406</v>
+        <v>18.586615919048096</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.02054235750036621</v>
+        <v>0.049114984947387696</v>
       </c>
       <c r="E2">
-        <v>36.61568</v>
+        <v>71.06337</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-408.43290615215943</v>
+        <v>-274.2017084750978</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.06405499379048205</v>
       </c>
       <c r="D3">
-        <v>0.05521392639245605</v>
+        <v>17.09294442499768</v>
       </c>
       <c r="E3">
         <v>0.0</v>
